--- a/job.xlsx
+++ b/job.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10950" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="发布需求" sheetId="1" r:id="rId1"/>
     <sheet name="后端发布" sheetId="2" r:id="rId2"/>
-    <sheet name="前端发布计划" sheetId="3" r:id="rId3"/>
+    <sheet name="前端发布" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">发布需求!#REF!</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>项目名称</t>
   </si>
@@ -39,129 +39,66 @@
     <t>生产验收人</t>
   </si>
   <si>
-    <t>正常还款优化</t>
-  </si>
-  <si>
-    <t>WJK-556</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> P2P【渠道还款转账管理】中，正常还款转账后自动冻结</t>
-  </si>
-  <si>
-    <t>吉鹏程</t>
+    <t>项目优化</t>
+  </si>
+  <si>
+    <t>WLC-1938</t>
+  </si>
+  <si>
+    <t>新手红包888元页面相关修改内容</t>
+  </si>
+  <si>
+    <t>陈求钰</t>
+  </si>
+  <si>
+    <t>王春阳</t>
+  </si>
+  <si>
+    <t>吴佩蕾</t>
+  </si>
+  <si>
+    <t>WLC-1961</t>
+  </si>
+  <si>
+    <t>PC债转数字改成小红点</t>
+  </si>
+  <si>
+    <t>WLC-1929</t>
+  </si>
+  <si>
+    <t>自动投标-设置记录修复</t>
+  </si>
+  <si>
+    <t>胡思远</t>
+  </si>
+  <si>
+    <t>WLC-1962</t>
+  </si>
+  <si>
+    <t>IOS债转数量显示优化</t>
+  </si>
+  <si>
+    <t>TENDER-240</t>
+  </si>
+  <si>
+    <t>渠道放款、还款定向转账授权优化</t>
   </si>
   <si>
     <t>钟权</t>
   </si>
   <si>
-    <t>何艳</t>
-  </si>
-  <si>
-    <t>WJK-549</t>
-  </si>
-  <si>
-    <t>报表系统新增【渠道受托还款清单】</t>
-  </si>
-  <si>
-    <t>孔世晓</t>
-  </si>
-  <si>
-    <t>WJK-548</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 报表系统中新增【渠道受托还款统计】</t>
-  </si>
-  <si>
-    <t>WJK-551</t>
-  </si>
-  <si>
-    <t>邮件充值提醒</t>
-  </si>
-  <si>
-    <t>DBJG-899</t>
-  </si>
-  <si>
-    <t>石投完成放款及定向转账</t>
-  </si>
-  <si>
-    <t>宋亚棋</t>
-  </si>
-  <si>
-    <t>张脉冬</t>
-  </si>
-  <si>
-    <t>三方征信-望斗</t>
-  </si>
-  <si>
-    <t>WJK-572</t>
-  </si>
-  <si>
-    <t>【三方征信-望斗】网银分析报告接口查询结果网页展示</t>
-  </si>
-  <si>
-    <t>罗爽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王晓婷 </t>
-  </si>
-  <si>
-    <t>余珍</t>
-  </si>
-  <si>
-    <t>DBJG-868</t>
-  </si>
-  <si>
-    <t>【三方征信-望斗】网银流水查询接口+分析接口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">方剑锋 </t>
-  </si>
-  <si>
-    <t>项目优化</t>
-  </si>
-  <si>
-    <t>WLC-1858</t>
-  </si>
-  <si>
-    <t>【后端】短信发送1分钟限制修改</t>
-  </si>
-  <si>
-    <t>陈求钰</t>
+    <t>WLC-1940</t>
+  </si>
+  <si>
+    <t>【BMS】自动匹配管理优化</t>
+  </si>
+  <si>
+    <t>周开用</t>
   </si>
   <si>
     <t>蒯飞</t>
   </si>
   <si>
-    <t>吴佩蕾</t>
-  </si>
-  <si>
-    <t>WLC-1889</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 世界杯活动排行榜奖品变更</t>
-  </si>
-  <si>
-    <t>王春阳</t>
-  </si>
-  <si>
-    <t>WLC-1885</t>
-  </si>
-  <si>
-    <t>前端0614小需求集锦</t>
-  </si>
-  <si>
-    <t>WLC-1806</t>
-  </si>
-  <si>
-    <t>H5 短信验证码+自动投标参数+投标小图标</t>
-  </si>
-  <si>
-    <t>WLC-1805</t>
-  </si>
-  <si>
-    <t>PC 短信验证码 + 自动投标参数</t>
-  </si>
-  <si>
     <t>开发上线发布文档-后端</t>
   </si>
   <si>
@@ -207,19 +144,19 @@
     <t>上线时间</t>
   </si>
   <si>
-    <t>credit.collect</t>
-  </si>
-  <si>
-    <t>征信API</t>
-  </si>
-  <si>
-    <t>镜像</t>
-  </si>
-  <si>
-    <t>credit.collect_201806131423</t>
-  </si>
-  <si>
-    <t>刘玉绘</t>
+    <t>invstone-bms</t>
+  </si>
+  <si>
+    <t>P2P后台</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>invstone-bms_201807141507</t>
+  </si>
+  <si>
+    <t>钟权、蒯飞</t>
   </si>
   <si>
     <t>无</t>
@@ -228,133 +165,66 @@
     <t>保持现状</t>
   </si>
   <si>
-    <t>WLC-1892</t>
-  </si>
-  <si>
-    <t>WLC-1891</t>
-  </si>
-  <si>
-    <t>1、DBJG-868 【三方征信-望斗】网银流水查询接口+分析接口</t>
-  </si>
-  <si>
-    <t>shitou-credit-bms</t>
-  </si>
-  <si>
-    <t>征信后台</t>
-  </si>
-  <si>
-    <t>shitou-credit-bms_201806131827</t>
-  </si>
-  <si>
-    <t>invstone-bms</t>
-  </si>
-  <si>
-    <t>P2P后台</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>invstone-bms_201806131649</t>
-  </si>
-  <si>
-    <t>WLC-1893</t>
-  </si>
-  <si>
-    <t>1、WJK-556 P2P【渠道还款转账管理】中，正常还款转账后自动冻结</t>
-  </si>
-  <si>
-    <t>shitou.transaction</t>
-  </si>
-  <si>
-    <t>交易回盘-基础</t>
-  </si>
-  <si>
-    <t>jar</t>
-  </si>
-  <si>
-    <t>shitou.transaction_201806131645</t>
-  </si>
-  <si>
-    <t>business.transaction</t>
-  </si>
-  <si>
-    <t>交易回盘-业务</t>
-  </si>
-  <si>
-    <t>business.transaction_201806141546</t>
-  </si>
-  <si>
-    <t>fund.transaction</t>
-  </si>
-  <si>
-    <t>交易回盘-fund</t>
-  </si>
-  <si>
-    <t>fund.transaction_201806131647</t>
-  </si>
-  <si>
-    <t>quartz</t>
-  </si>
-  <si>
-    <t>定时任务</t>
-  </si>
-  <si>
-    <t>quartz_201806131937</t>
-  </si>
-  <si>
-    <t>institution-service</t>
-  </si>
-  <si>
-    <t>机构基础服务</t>
-  </si>
-  <si>
-    <t>institution-service_201806141240</t>
-  </si>
-  <si>
-    <t>DBJG-1035</t>
-  </si>
-  <si>
-    <t>DBJG-1034</t>
-  </si>
-  <si>
-    <t>1、DBJG-899 石投完成放款及定向转账</t>
-  </si>
-  <si>
-    <t>institution-api</t>
-  </si>
-  <si>
-    <t>机构API</t>
-  </si>
-  <si>
-    <t>institution-api_201806141238</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> institution-bms-v2</t>
-  </si>
-  <si>
-    <t>机构后台</t>
-  </si>
-  <si>
-    <t>institution-bms-v2_201806141348</t>
-  </si>
-  <si>
-    <t>institution.schedule</t>
-  </si>
-  <si>
-    <t>机构定时任务</t>
-  </si>
-  <si>
-    <t>institution.schedule_201806141709</t>
-  </si>
-  <si>
-    <t>invstone-dbei-businessapi</t>
-  </si>
-  <si>
-    <t>移动办公</t>
-  </si>
-  <si>
-    <t>invstone-dbei-businessapi_201806141241</t>
+    <t>1、TENDER-240 渠道放款、还款定向转账授权优化
+2、WLC-1940 【BMS】自动匹配管理优化</t>
+  </si>
+  <si>
+    <t>gateway.transaction</t>
+  </si>
+  <si>
+    <t>交易网关</t>
+  </si>
+  <si>
+    <t>gateway.transaction_201807161704</t>
+  </si>
+  <si>
+    <t>1、WLC-1929 自动投标-设置记录修复</t>
+  </si>
+  <si>
+    <t>web.api</t>
+  </si>
+  <si>
+    <t>WEB应用</t>
+  </si>
+  <si>
+    <t>web.api_201807161827</t>
+  </si>
+  <si>
+    <t>阮加敏</t>
+  </si>
+  <si>
+    <t>1、WLC-1938 新手红包888元页面相关修改内容</t>
+  </si>
+  <si>
+    <t>wx.api</t>
+  </si>
+  <si>
+    <t>微信应用</t>
+  </si>
+  <si>
+    <t>wx.api_201807161750</t>
+  </si>
+  <si>
+    <t>app.api</t>
+  </si>
+  <si>
+    <t>APP应用</t>
+  </si>
+  <si>
+    <t>app.api_201807161846</t>
+  </si>
+  <si>
+    <t>1、WLC-1938 新手红包888元页面相关修改内容
+2、WLC-1962 IOS债转数量显示优化</t>
+  </si>
+  <si>
+    <t>p2p-consumer</t>
+  </si>
+  <si>
+    <t>红包消费</t>
+  </si>
+  <si>
+    <t>p2p-consumer_201807161405</t>
   </si>
   <si>
     <t>开发上线发布文档-前端</t>
@@ -375,12 +245,12 @@
     <t>PC NODE</t>
   </si>
   <si>
-    <t>1、WLC-1889 世界杯活动排行榜奖品变更
-2、WLC-1885 前端0614小需求集锦
-3、WLC-1805 PC 短信验证码 + 自动投标参数</t>
-  </si>
-  <si>
-    <t>pc-node_20180614</t>
+    <t>1、WLC-1938 新手红包888元页面相关修改内容
+2、WLC-1961 PC债转数字改成小红点
+3、WLC-1929 自动投标-设置记录修复</t>
+  </si>
+  <si>
+    <t>pc-node_20180717</t>
   </si>
   <si>
     <t>李园</t>
@@ -395,12 +265,7 @@
     <t>WX NODE</t>
   </si>
   <si>
-    <t>1、WLC-1889 世界杯活动排行榜奖品变更
-2、WLC-1885 前端0614小需求集锦
-3、WLC-1806 H5 短信验证码+自动投标参数+投标小图标</t>
-  </si>
-  <si>
-    <t>wx-node_20180614</t>
+    <t>wx-node_20180717</t>
   </si>
 </sst>
 </file>
@@ -409,11 +274,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +311,107 @@
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -456,50 +422,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,84 +462,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -619,175 +496,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,6 +872,26 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,41 +911,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1060,21 +922,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,6 +943,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1104,10 +981,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,137 +993,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,73 +1214,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1752,21 +1611,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:XFA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D14"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="47.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="13.25" style="1" customWidth="1"/>
-    <col min="8" max="16376" width="9" style="1"/>
-    <col min="16377" max="16384" width="9" style="28"/>
+    <col min="4" max="4" width="58" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="16378" width="9" style="1"/>
+    <col min="16379" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="11" customHeight="1"/>
@@ -1790,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="2:7">
+    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
       <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
@@ -1809,9 +1670,18 @@
       <c r="G3" s="34" t="s">
         <v>11</v>
       </c>
+      <c r="XES3" s="28"/>
+      <c r="XET3" s="28"/>
+      <c r="XEU3" s="28"/>
+      <c r="XEV3" s="28"/>
+      <c r="XEW3" s="28"/>
+      <c r="XEX3" s="28"/>
+      <c r="XEY3" s="28"/>
+      <c r="XEZ3" s="28"/>
+      <c r="XFA3" s="28"/>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="2:7">
-      <c r="B4" s="30"/>
+    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B4" s="35"/>
       <c r="C4" s="31" t="s">
         <v>12</v>
       </c>
@@ -1822,201 +1692,132 @@
         <v>9</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>11</v>
       </c>
+      <c r="XES4" s="28"/>
+      <c r="XET4" s="28"/>
+      <c r="XEU4" s="28"/>
+      <c r="XEV4" s="28"/>
+      <c r="XEW4" s="28"/>
+      <c r="XEX4" s="28"/>
+      <c r="XEY4" s="28"/>
+      <c r="XEZ4" s="28"/>
+      <c r="XFA4" s="28"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="2:7">
-      <c r="B5" s="30"/>
+    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B5" s="35"/>
       <c r="C5" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
+      <c r="XES5" s="28"/>
+      <c r="XET5" s="28"/>
+      <c r="XEU5" s="28"/>
+      <c r="XEV5" s="28"/>
+      <c r="XEW5" s="28"/>
+      <c r="XEX5" s="28"/>
+      <c r="XEY5" s="28"/>
+      <c r="XEZ5" s="28"/>
+      <c r="XFA5" s="28"/>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="2:7">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
+      <c r="XES6" s="28"/>
+      <c r="XET6" s="28"/>
+      <c r="XEU6" s="28"/>
+      <c r="XEV6" s="28"/>
+      <c r="XEW6" s="28"/>
+      <c r="XEX6" s="28"/>
+      <c r="XEY6" s="28"/>
+      <c r="XEZ6" s="28"/>
+      <c r="XFA6" s="28"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="2:7">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31" t="s">
+    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B7" s="35"/>
+      <c r="C7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="XES7" s="28"/>
+      <c r="XET7" s="28"/>
+      <c r="XEU7" s="28"/>
+      <c r="XEV7" s="28"/>
+      <c r="XEW7" s="28"/>
+      <c r="XEX7" s="28"/>
+      <c r="XEY7" s="28"/>
+      <c r="XEZ7" s="28"/>
+      <c r="XFA7" s="28"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="2:7">
-      <c r="B8" s="35" t="s">
+      <c r="D8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="E8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="G8" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="2:7">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="2:7">
-      <c r="B10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="2:7">
-      <c r="B11" s="47"/>
-      <c r="C11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="2:7">
-      <c r="B12" s="47"/>
-      <c r="C12" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="2:7">
-      <c r="B13" s="47"/>
-      <c r="C13" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="2:7">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>37</v>
-      </c>
+      <c r="XES8" s="28"/>
+      <c r="XET8" s="28"/>
+      <c r="XEU8" s="28"/>
+      <c r="XEV8" s="28"/>
+      <c r="XEW8" s="28"/>
+      <c r="XEX8" s="28"/>
+      <c r="XEY8" s="28"/>
+      <c r="XEZ8" s="28"/>
+      <c r="XFA8" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B14"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B8"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -2027,17 +1828,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O17"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O17" sqref="B2:O17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="40.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
@@ -2046,7 +1847,7 @@
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="75.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="57.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
@@ -2054,7 +1855,7 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="2:15">
       <c r="B2" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -2072,46 +1873,46 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="2:15">
       <c r="B3" s="18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:15">
@@ -2146,514 +1947,256 @@
       <c r="N5" s="19"/>
       <c r="O5" s="27"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+    <row r="6" s="1" customFormat="1" ht="33" spans="2:15">
       <c r="B6" s="20" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J6" s="21">
         <v>1</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>70</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="22" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O6" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J7" s="21">
         <v>2</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="22" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O7" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
       <c r="B8" s="20" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J8" s="21">
         <v>3</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>79</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O8" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
       <c r="B9" s="20" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J9" s="21">
         <v>4</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="22" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O9" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+    <row r="10" s="1" customFormat="1" ht="33" spans="2:15">
       <c r="B10" s="20" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J10" s="21">
         <v>5</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="22" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="O10" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B11" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="21">
+      <c r="F11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="24">
         <v>6</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B12" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="21">
-        <v>7</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B13" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="21">
-        <v>8</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B14" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="21">
-        <v>9</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B15" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="21">
-        <v>10</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O15" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B16" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="21">
-        <v>11</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="11">
-        <v>43265</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="24">
-        <v>12</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="15">
-        <v>43265</v>
+      <c r="K11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="15">
+        <v>43298</v>
       </c>
     </row>
   </sheetData>
@@ -2685,8 +2228,8 @@
   <sheetPr/>
   <dimension ref="B1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="B2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2705,7 +2248,7 @@
     <row r="1" s="1" customFormat="1" ht="17.25"/>
     <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2716,71 +2259,71 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="49.5" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="H4" s="11">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="50.25" spans="2:8">
+    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B5" s="12" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="H5" s="15">
-        <v>43265</v>
+        <v>43298</v>
       </c>
     </row>
   </sheetData>

--- a/job.xlsx
+++ b/job.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>项目名称</t>
   </si>
@@ -39,48 +39,57 @@
     <t>生产验收人</t>
   </si>
   <si>
-    <t>宜农</t>
-  </si>
-  <si>
-    <t>DBJG-1273</t>
-  </si>
-  <si>
-    <t>【宜农 测试】提现H5，换绑卡操作，提示系统异常</t>
-  </si>
-  <si>
-    <t>宋亚棋</t>
+    <t>预期上线时间</t>
+  </si>
+  <si>
+    <t>项目优化</t>
+  </si>
+  <si>
+    <t>WLC-2032</t>
+  </si>
+  <si>
+    <t>【BMS】渠道用户债转限制记录表管理</t>
+  </si>
+  <si>
+    <t>罗爽</t>
+  </si>
+  <si>
+    <t>蒯飞</t>
+  </si>
+  <si>
+    <t>吴佩蕾</t>
+  </si>
+  <si>
+    <t>WLC-2045</t>
+  </si>
+  <si>
+    <t>债转方案第一期---开关类</t>
+  </si>
+  <si>
+    <t>张建国</t>
+  </si>
+  <si>
+    <t>胡思远</t>
+  </si>
+  <si>
+    <t>DBJG-955</t>
+  </si>
+  <si>
+    <t>固定还款日-app端增加字段</t>
+  </si>
+  <si>
+    <t>钟权</t>
+  </si>
+  <si>
+    <t>WLC-2047</t>
+  </si>
+  <si>
+    <t>积分公益活动调整</t>
   </si>
   <si>
     <t>王晓婷</t>
   </si>
   <si>
-    <t>吴敏倩</t>
-  </si>
-  <si>
-    <t>项目优化</t>
-  </si>
-  <si>
-    <t>WLC-1977</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 后台需求汇总7月</t>
-  </si>
-  <si>
-    <t>张建国</t>
-  </si>
-  <si>
-    <t>胡思远</t>
-  </si>
-  <si>
-    <t>吴佩蕾</t>
-  </si>
-  <si>
-    <t>WLC-1966</t>
-  </si>
-  <si>
-    <t>签署对象绑定关系重复添加、产品合同信息管理查询优化</t>
-  </si>
-  <si>
     <t>开发上线发布文档-后端</t>
   </si>
   <si>
@@ -135,10 +144,7 @@
     <t>war</t>
   </si>
   <si>
-    <t>invstone-bms_201808091551</t>
-  </si>
-  <si>
-    <t>蒯飞</t>
+    <t>invstone-bms_20180815</t>
   </si>
   <si>
     <t>无</t>
@@ -147,19 +153,59 @@
     <t>保持现状</t>
   </si>
   <si>
-    <t>1、WLC-1977 后台需求汇总7月</t>
-  </si>
-  <si>
-    <t>invstone-bms-business</t>
-  </si>
-  <si>
-    <t>新管理后台</t>
-  </si>
-  <si>
-    <t>invstone-bms-business_201808091557</t>
-  </si>
-  <si>
-    <t>1、WLC-1966 签署对象绑定关系重复添加、产品合同信息管理查询优化</t>
+    <t>WLC-2137</t>
+  </si>
+  <si>
+    <t>1、WLC-2032 【BMS】渠道用户债转限制记录表管理</t>
+  </si>
+  <si>
+    <t>base.product</t>
+  </si>
+  <si>
+    <t>基础服务-产品</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>base.product_201808151619</t>
+  </si>
+  <si>
+    <t>1、WLC-2045 债转方案第一期---开关类</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>普通网关</t>
+  </si>
+  <si>
+    <t>gateway_201808151620</t>
+  </si>
+  <si>
+    <t>app.api</t>
+  </si>
+  <si>
+    <t>APP应用</t>
+  </si>
+  <si>
+    <t>app.api_201808161349</t>
+  </si>
+  <si>
+    <t>钟权、蒯飞</t>
+  </si>
+  <si>
+    <t>1、WLC-2045 债转方案第一期---开关类
+2、DBJG-955 固定还款日-app端增加字段</t>
+  </si>
+  <si>
+    <t>wx.api</t>
+  </si>
+  <si>
+    <t>微信应用</t>
+  </si>
+  <si>
+    <t>wx.api_201808151623</t>
   </si>
   <si>
     <t>开发上线发布文档-前端</t>
@@ -177,22 +223,26 @@
     <t>CDN刷新</t>
   </si>
   <si>
-    <t>DB NODE</t>
-  </si>
-  <si>
-    <t>1、DBJG-1273 【宜农 测试】提现H5，换绑卡操作，提示系统异常</t>
-  </si>
-  <si>
-    <t>db-node_20180809</t>
+    <t>PC NODE</t>
+  </si>
+  <si>
+    <t>1、WLC-2047 积分公益活动调整
+2、WLC-2045 债转方案第一期---开关类</t>
+  </si>
+  <si>
+    <t>wx-node_20180816</t>
   </si>
   <si>
     <t>李园</t>
   </si>
   <si>
-    <t>单独发布</t>
+    <t>后端发布后</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>WX NODE</t>
   </si>
 </sst>
 </file>
@@ -205,7 +255,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,19 +270,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,7 +291,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -263,6 +300,58 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,7 +364,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,36 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -327,67 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +434,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,169 +473,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,20 +784,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -774,7 +824,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -784,26 +834,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -826,30 +863,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -864,11 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +918,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -915,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,276 +964,285 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,107 +1591,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:XFB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="C5:D5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="16381" width="9" style="1"/>
-    <col min="16382" max="16384" width="9" style="28"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="16382" width="9" style="1"/>
+    <col min="16383" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="11" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
-      <c r="B2" s="29" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
+      <c r="H2" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
-      <c r="B3" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="34" t="s">
+    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="F3" s="39" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="40">
+        <v>43328</v>
+      </c>
+      <c r="XET3" s="34"/>
+      <c r="XEU3" s="34"/>
+      <c r="XEV3" s="34"/>
+      <c r="XEW3" s="34"/>
+      <c r="XEX3" s="34"/>
+      <c r="XEY3" s="34"/>
+      <c r="XEZ3" s="34"/>
+      <c r="XFA3" s="34"/>
+      <c r="XFB3" s="34"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
-      <c r="B4" s="38" t="s">
+    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="40">
+        <v>43328</v>
+      </c>
+      <c r="XET4" s="34"/>
+      <c r="XEU4" s="34"/>
+      <c r="XEV4" s="34"/>
+      <c r="XEW4" s="34"/>
+      <c r="XEX4" s="34"/>
+      <c r="XEY4" s="34"/>
+      <c r="XEZ4" s="34"/>
+      <c r="XFA4" s="34"/>
+      <c r="XFB4" s="34"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:7">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="44" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="40">
+        <v>43328</v>
+      </c>
+      <c r="XET5" s="34"/>
+      <c r="XEU5" s="34"/>
+      <c r="XEV5" s="34"/>
+      <c r="XEW5" s="34"/>
+      <c r="XEX5" s="34"/>
+      <c r="XEY5" s="34"/>
+      <c r="XEZ5" s="34"/>
+      <c r="XFA5" s="34"/>
+      <c r="XFB5" s="34"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="49">
+        <v>43328</v>
+      </c>
+      <c r="XET6" s="34"/>
+      <c r="XEU6" s="34"/>
+      <c r="XEV6" s="34"/>
+      <c r="XEW6" s="34"/>
+      <c r="XEX6" s="34"/>
+      <c r="XEY6" s="34"/>
+      <c r="XEZ6" s="34"/>
+      <c r="XFA6" s="34"/>
+      <c r="XFB6" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1656,224 +1770,350 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O8"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="56.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="9" style="12"/>
-    <col min="10" max="10" width="9" style="12" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="12" customWidth="1"/>
-    <col min="12" max="12" width="23.125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="81" style="12" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="12" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="56.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="81" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="12" customFormat="1" ht="39" customHeight="1" spans="2:15">
-      <c r="B2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="24"/>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="31"/>
     </row>
-    <row r="3" s="12" customFormat="1" spans="2:15">
-      <c r="B3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="16" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:15">
+      <c r="B3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="F3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="I3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="J3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="L3" s="19" t="s">
         <v>34</v>
       </c>
+      <c r="M3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="2:15">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="25"/>
+    <row r="4" s="1" customFormat="1" spans="2:15">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="32"/>
     </row>
-    <row r="5" s="12" customFormat="1" spans="2:15">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="25"/>
+    <row r="5" s="1" customFormat="1" spans="2:15">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="32"/>
     </row>
-    <row r="6" s="12" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="19" t="s">
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="F6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="21">
         <v>1</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19" t="s">
+      <c r="K6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="26">
-        <v>43321</v>
+      <c r="O6" s="11">
+        <v>43328</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B7" s="20" t="s">
+    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="11">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="21" t="s">
+      <c r="E8" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="21">
+        <v>3</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="11">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" spans="2:15">
+      <c r="B9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="11">
-        <v>43321</v>
+      <c r="E9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="21">
+        <v>4</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="11">
+        <v>43328</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="2:15">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="27"/>
+    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="28">
+        <v>5</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="15">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:15">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1902,13 +2142,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H4"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -1924,7 +2164,7 @@
     <row r="1" s="1" customFormat="1" ht="17.25"/>
     <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1935,48 +2175,71 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+    <row r="4" s="1" customFormat="1" ht="33" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H4" s="11">
-        <v>43321</v>
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="33.75" spans="2:8">
+      <c r="B5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="15">
+        <v>43328</v>
       </c>
     </row>
   </sheetData>

--- a/job.xlsx
+++ b/job.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="发布需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>项目名称</t>
   </si>
@@ -39,55 +39,130 @@
     <t>生产验收人</t>
   </si>
   <si>
-    <t>预期上线时间</t>
+    <t>回款红包活动</t>
+  </si>
+  <si>
+    <t>WJK-610</t>
+  </si>
+  <si>
+    <t>系统自动每日向当天有回款的用户发放红包</t>
+  </si>
+  <si>
+    <t>张建国</t>
+  </si>
+  <si>
+    <t>阮加敏、方作</t>
+  </si>
+  <si>
+    <t>余珍</t>
+  </si>
+  <si>
+    <t>WJK-611</t>
+  </si>
+  <si>
+    <t>系统自动每日向当天已发生提前回款的用户发送回款红包</t>
+  </si>
+  <si>
+    <t>WJK-613</t>
+  </si>
+  <si>
+    <t>每日正常回款的APP推送、站内信提醒文案修改</t>
+  </si>
+  <si>
+    <t>宜农</t>
+  </si>
+  <si>
+    <t>DBJG-1306</t>
+  </si>
+  <si>
+    <t>机构链接加密</t>
+  </si>
+  <si>
+    <t>宋亚棋</t>
+  </si>
+  <si>
+    <t>刘玉绘、李园</t>
+  </si>
+  <si>
+    <t>刘玉绘</t>
   </si>
   <si>
     <t>项目优化</t>
   </si>
   <si>
-    <t>WLC-2032</t>
-  </si>
-  <si>
-    <t>【BMS】渠道用户债转限制记录表管理</t>
-  </si>
-  <si>
-    <t>罗爽</t>
-  </si>
-  <si>
-    <t>蒯飞</t>
+    <t xml:space="preserve"> IRM-608</t>
+  </si>
+  <si>
+    <t>及时雨双通道产品</t>
+  </si>
+  <si>
+    <t>罗爽、陈求钰</t>
+  </si>
+  <si>
+    <t>许令明</t>
+  </si>
+  <si>
+    <t>WJK-623</t>
+  </si>
+  <si>
+    <t>P2P报表-还款计划统计增加字段“借款人当期应还总额”</t>
+  </si>
+  <si>
+    <t>陈求钰</t>
+  </si>
+  <si>
+    <t>孔世晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彬 </t>
+  </si>
+  <si>
+    <t>HS-516</t>
+  </si>
+  <si>
+    <t>【慧石1.0.0】慧石分页参数验证优化</t>
+  </si>
+  <si>
+    <t>朱山山</t>
+  </si>
+  <si>
+    <t>WLC-2210</t>
+  </si>
+  <si>
+    <t>积分商城进入首先显示优惠券</t>
+  </si>
+  <si>
+    <t>王春阳</t>
   </si>
   <si>
     <t>吴佩蕾</t>
   </si>
   <si>
-    <t>WLC-2045</t>
-  </si>
-  <si>
-    <t>债转方案第一期---开关类</t>
-  </si>
-  <si>
-    <t>张建国</t>
-  </si>
-  <si>
-    <t>胡思远</t>
-  </si>
-  <si>
-    <t>DBJG-955</t>
-  </si>
-  <si>
-    <t>固定还款日-app端增加字段</t>
-  </si>
-  <si>
-    <t>钟权</t>
-  </si>
-  <si>
-    <t>WLC-2047</t>
-  </si>
-  <si>
-    <t>积分公益活动调整</t>
-  </si>
-  <si>
-    <t>王晓婷</t>
+    <t>WLC-2207</t>
+  </si>
+  <si>
+    <t>修改信息披露中的管理团队</t>
+  </si>
+  <si>
+    <t>WLC-2192</t>
+  </si>
+  <si>
+    <t>债转投资记录的导出功能</t>
+  </si>
+  <si>
+    <t>周开用</t>
+  </si>
+  <si>
+    <t>WLC-2199</t>
+  </si>
+  <si>
+    <t>集合标中展示子标是否加息</t>
+  </si>
+  <si>
+    <t>WLC-2202</t>
+  </si>
+  <si>
+    <t>P2P后台-统计管理-还款计划统计，增加字段“产品名称”</t>
   </si>
   <si>
     <t>开发上线发布文档-后端</t>
@@ -135,7 +210,7 @@
     <t>上线时间</t>
   </si>
   <si>
-    <t>invstone-bms</t>
+    <t xml:space="preserve"> invstone-bms</t>
   </si>
   <si>
     <t>P2P后台</t>
@@ -144,7 +219,10 @@
     <t>war</t>
   </si>
   <si>
-    <t>invstone-bms_20180815</t>
+    <t>invstone-bms_201809061052</t>
+  </si>
+  <si>
+    <t>阮加敏、蒯飞、王起东</t>
   </si>
   <si>
     <t>无</t>
@@ -153,59 +231,99 @@
     <t>保持现状</t>
   </si>
   <si>
-    <t>WLC-2137</t>
-  </si>
-  <si>
-    <t>1、WLC-2032 【BMS】渠道用户债转限制记录表管理</t>
-  </si>
-  <si>
-    <t>base.product</t>
-  </si>
-  <si>
-    <t>基础服务-产品</t>
+    <t>WLC-2208</t>
+  </si>
+  <si>
+    <t>1、WJK-610 系统自动每日向当天有回款的用户发放红包
+2、WJK-623 P2P报表-还款计划统计增加字段“借款人当期应还总额”
+3、WLC-2202 P2P后台-统计管理-还款计划统计，增加字段“产品名称”
+4、WLC-2192 债转投资记录的导出功能</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>P2P定时任务</t>
+  </si>
+  <si>
+    <t>quartz_201808311602</t>
+  </si>
+  <si>
+    <t>阮加敏</t>
+  </si>
+  <si>
+    <t>1、WJK-610 系统自动每日向当天有回款的用户发放红包
+2、WJK-611 系统自动每日向当天已发生提前回款的用户发送回款红包
+3、WJK-613 每日正常回款的APP推送、站内信提醒文案修改</t>
+  </si>
+  <si>
+    <t>shitou.market.api</t>
+  </si>
+  <si>
+    <t>红包数据集</t>
   </si>
   <si>
     <t>jar</t>
   </si>
   <si>
-    <t>base.product_201808151619</t>
-  </si>
-  <si>
-    <t>1、WLC-2045 债转方案第一期---开关类</t>
-  </si>
-  <si>
-    <t>gateway</t>
-  </si>
-  <si>
-    <t>普通网关</t>
-  </si>
-  <si>
-    <t>gateway_201808151620</t>
-  </si>
-  <si>
-    <t>app.api</t>
-  </si>
-  <si>
-    <t>APP应用</t>
-  </si>
-  <si>
-    <t>app.api_201808161349</t>
-  </si>
-  <si>
-    <t>钟权、蒯飞</t>
-  </si>
-  <si>
-    <t>1、WLC-2045 债转方案第一期---开关类
-2、DBJG-955 固定还款日-app端增加字段</t>
-  </si>
-  <si>
-    <t>wx.api</t>
-  </si>
-  <si>
-    <t>微信应用</t>
-  </si>
-  <si>
-    <t>wx.api_201808151623</t>
+    <t>shitou.market.api_201808311603</t>
+  </si>
+  <si>
+    <t>shitou.rule</t>
+  </si>
+  <si>
+    <t>红包推理</t>
+  </si>
+  <si>
+    <t>shitou.rule_201808311603</t>
+  </si>
+  <si>
+    <t>shitou.market</t>
+  </si>
+  <si>
+    <t>红包赠送服务</t>
+  </si>
+  <si>
+    <t>shitou.market_201809051507</t>
+  </si>
+  <si>
+    <t>huishi-server</t>
+  </si>
+  <si>
+    <t>慧石服务</t>
+  </si>
+  <si>
+    <t>huishi-server_201809061638</t>
+  </si>
+  <si>
+    <t>1、HS-516 【慧石1.0.0】慧石分页参数验证优化</t>
+  </si>
+  <si>
+    <t>institution-api</t>
+  </si>
+  <si>
+    <t>机构API</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>institution-api_201809061345</t>
+  </si>
+  <si>
+    <t>1、DBJG-1306 机构链接加密</t>
+  </si>
+  <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>IRM后台</t>
+  </si>
+  <si>
+    <t>irm_201809061058</t>
+  </si>
+  <si>
+    <t>1、IRM-608 及时雨双通道产品</t>
   </si>
   <si>
     <t>开发上线发布文档-前端</t>
@@ -226,23 +344,37 @@
     <t>PC NODE</t>
   </si>
   <si>
-    <t>1、WLC-2047 积分公益活动调整
-2、WLC-2045 债转方案第一期---开关类</t>
-  </si>
-  <si>
-    <t>wx-node_20180816</t>
+    <t>1、WLC-2207 修改信息披露中的管理团队
+2、WLC-2199 集合标中展示子标是否加息</t>
+  </si>
+  <si>
+    <t>pc-node_20180906</t>
   </si>
   <si>
     <t>李园</t>
   </si>
   <si>
+    <t>单独发布</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>WX NODE</t>
+  </si>
+  <si>
+    <t>1、WLC-2207 修改信息披露中的管理团队
+2、WLC-2199 集合标中展示子标是否加息
+3、WLC-2210 积分商城进入首先显示优惠券</t>
+  </si>
+  <si>
+    <t>DB NODE</t>
+  </si>
+  <si>
+    <t>db-node_20180906</t>
+  </si>
+  <si>
     <t>后端发布后</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>WX NODE</t>
   </si>
 </sst>
 </file>
@@ -255,7 +387,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,21 +409,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -310,8 +449,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,9 +472,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,24 +488,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,18 +557,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,19 +606,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +696,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,97 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,38 +778,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -784,19 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -810,7 +936,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -824,7 +989,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -927,15 +1092,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -944,6 +1100,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -952,10 +1117,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,137 +1129,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,23 +1326,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1197,52 +1350,91 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1591,175 +1783,385 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:XFB6"/>
+  <dimension ref="B1:XFA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="16382" width="9" style="1"/>
-    <col min="16383" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="2.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="53" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15" style="30" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="30" customWidth="1"/>
+    <col min="8" max="16381" width="9" style="30"/>
+    <col min="16382" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1"/>
-    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
-      <c r="B2" s="16" t="s">
+    <row r="1" s="30" customFormat="1" ht="11" customHeight="1"/>
+    <row r="2" s="30" customFormat="1" ht="25" customHeight="1" spans="2:7">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+    </row>
+    <row r="3" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="XES3" s="31"/>
+      <c r="XET3" s="31"/>
+      <c r="XEU3" s="31"/>
+      <c r="XEV3" s="31"/>
+      <c r="XEW3" s="31"/>
+      <c r="XEX3" s="31"/>
+      <c r="XEY3" s="31"/>
+      <c r="XEZ3" s="31"/>
+      <c r="XFA3" s="31"/>
+    </row>
+    <row r="4" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B4" s="40"/>
+      <c r="C4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="40">
-        <v>43328</v>
-      </c>
-      <c r="XET3" s="34"/>
-      <c r="XEU3" s="34"/>
-      <c r="XEV3" s="34"/>
-      <c r="XEW3" s="34"/>
-      <c r="XEX3" s="34"/>
-      <c r="XEY3" s="34"/>
-      <c r="XEZ3" s="34"/>
-      <c r="XFA3" s="34"/>
-      <c r="XFB3" s="34"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="XES4" s="31"/>
+      <c r="XET4" s="31"/>
+      <c r="XEU4" s="31"/>
+      <c r="XEV4" s="31"/>
+      <c r="XEW4" s="31"/>
+      <c r="XEX4" s="31"/>
+      <c r="XEY4" s="31"/>
+      <c r="XEZ4" s="31"/>
+      <c r="XFA4" s="31"/>
+    </row>
+    <row r="5" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B5" s="41"/>
+      <c r="C5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="E5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="XES5" s="31"/>
+      <c r="XET5" s="31"/>
+      <c r="XEU5" s="31"/>
+      <c r="XEV5" s="31"/>
+      <c r="XEW5" s="31"/>
+      <c r="XEX5" s="31"/>
+      <c r="XEY5" s="31"/>
+      <c r="XEZ5" s="31"/>
+      <c r="XFA5" s="31"/>
+    </row>
+    <row r="6" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="40">
-        <v>43328</v>
-      </c>
-      <c r="XET4" s="34"/>
-      <c r="XEU4" s="34"/>
-      <c r="XEV4" s="34"/>
-      <c r="XEW4" s="34"/>
-      <c r="XEX4" s="34"/>
-      <c r="XEY4" s="34"/>
-      <c r="XEZ4" s="34"/>
-      <c r="XFA4" s="34"/>
-      <c r="XFB4" s="34"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="C6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="44" t="s">
+      <c r="E6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="40">
-        <v>43328</v>
-      </c>
-      <c r="XET5" s="34"/>
-      <c r="XEU5" s="34"/>
-      <c r="XEV5" s="34"/>
-      <c r="XEW5" s="34"/>
-      <c r="XEX5" s="34"/>
-      <c r="XEY5" s="34"/>
-      <c r="XEZ5" s="34"/>
-      <c r="XFA5" s="34"/>
-      <c r="XFB5" s="34"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:16382">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46" t="s">
+      <c r="F6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="G6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="XES6" s="31"/>
+      <c r="XET6" s="31"/>
+      <c r="XEU6" s="31"/>
+      <c r="XEV6" s="31"/>
+      <c r="XEW6" s="31"/>
+      <c r="XEX6" s="31"/>
+      <c r="XEY6" s="31"/>
+      <c r="XEZ6" s="31"/>
+      <c r="XFA6" s="31"/>
+    </row>
+    <row r="7" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="49">
-        <v>43328</v>
-      </c>
-      <c r="XET6" s="34"/>
-      <c r="XEU6" s="34"/>
-      <c r="XEV6" s="34"/>
-      <c r="XEW6" s="34"/>
-      <c r="XEX6" s="34"/>
-      <c r="XEY6" s="34"/>
-      <c r="XEZ6" s="34"/>
-      <c r="XFA6" s="34"/>
-      <c r="XFB6" s="34"/>
-    </row>
+      <c r="C7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="XES7" s="31"/>
+      <c r="XET7" s="31"/>
+      <c r="XEU7" s="31"/>
+      <c r="XEV7" s="31"/>
+      <c r="XEW7" s="31"/>
+      <c r="XEX7" s="31"/>
+      <c r="XEY7" s="31"/>
+      <c r="XEZ7" s="31"/>
+      <c r="XFA7" s="31"/>
+    </row>
+    <row r="8" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="XES8" s="31"/>
+      <c r="XET8" s="31"/>
+      <c r="XEU8" s="31"/>
+      <c r="XEV8" s="31"/>
+      <c r="XEW8" s="31"/>
+      <c r="XEX8" s="31"/>
+      <c r="XEY8" s="31"/>
+      <c r="XEZ8" s="31"/>
+      <c r="XFA8" s="31"/>
+    </row>
+    <row r="9" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="XES9" s="31"/>
+      <c r="XET9" s="31"/>
+      <c r="XEU9" s="31"/>
+      <c r="XEV9" s="31"/>
+      <c r="XEW9" s="31"/>
+      <c r="XEX9" s="31"/>
+      <c r="XEY9" s="31"/>
+      <c r="XEZ9" s="31"/>
+      <c r="XFA9" s="31"/>
+    </row>
+    <row r="10" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="XES10" s="31"/>
+      <c r="XET10" s="31"/>
+      <c r="XEU10" s="31"/>
+      <c r="XEV10" s="31"/>
+      <c r="XEW10" s="31"/>
+      <c r="XEX10" s="31"/>
+      <c r="XEY10" s="31"/>
+      <c r="XEZ10" s="31"/>
+      <c r="XFA10" s="31"/>
+    </row>
+    <row r="11" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="XES11" s="31"/>
+      <c r="XET11" s="31"/>
+      <c r="XEU11" s="31"/>
+      <c r="XEV11" s="31"/>
+      <c r="XEW11" s="31"/>
+      <c r="XEX11" s="31"/>
+      <c r="XEY11" s="31"/>
+      <c r="XEZ11" s="31"/>
+      <c r="XFA11" s="31"/>
+    </row>
+    <row r="12" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B12" s="36"/>
+      <c r="C12" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="XES12" s="31"/>
+      <c r="XET12" s="31"/>
+      <c r="XEU12" s="31"/>
+      <c r="XEV12" s="31"/>
+      <c r="XEW12" s="31"/>
+      <c r="XEX12" s="31"/>
+      <c r="XEY12" s="31"/>
+      <c r="XEZ12" s="31"/>
+      <c r="XFA12" s="31"/>
+    </row>
+    <row r="13" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B13" s="36"/>
+      <c r="C13" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="XES13" s="31"/>
+      <c r="XET13" s="31"/>
+      <c r="XEU13" s="31"/>
+      <c r="XEV13" s="31"/>
+      <c r="XEW13" s="31"/>
+      <c r="XEX13" s="31"/>
+      <c r="XEY13" s="31"/>
+      <c r="XEZ13" s="31"/>
+      <c r="XFA13" s="31"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="25" customHeight="1" spans="2:16381">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="XES14" s="31"/>
+      <c r="XET14" s="31"/>
+      <c r="XEU14" s="31"/>
+      <c r="XEV14" s="31"/>
+      <c r="XEW14" s="31"/>
+      <c r="XEX14" s="31"/>
+      <c r="XEY14" s="31"/>
+      <c r="XEZ14" s="31"/>
+      <c r="XFA14" s="31"/>
+    </row>
+    <row r="15" s="30" customFormat="1"/>
+    <row r="16" s="30" customFormat="1"/>
+    <row r="17" s="30" customFormat="1"/>
+    <row r="18" s="30" customFormat="1"/>
+    <row r="19" s="30" customFormat="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:B6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B14"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -1770,34 +2172,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:O11"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="56.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="81" style="1" customWidth="1"/>
+    <col min="13" max="13" width="63.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="17.25"/>
     <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="2:15">
       <c r="B2" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1811,50 +2214,50 @@
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
-      <c r="O2" s="31"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:15">
       <c r="B3" s="18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:15">
@@ -1871,7 +2274,7 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="32"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:15">
       <c r="B5" s="18"/>
@@ -1887,233 +2290,361 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="66" spans="2:15">
       <c r="B6" s="20" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J6" s="21">
         <v>1</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="M6" s="9" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O6" s="11">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B7" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>49</v>
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="49.5" spans="2:15">
+      <c r="B7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J7" s="21">
         <v>2</v>
       </c>
-      <c r="K7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="24" t="s">
-        <v>50</v>
+      <c r="K7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O7" s="11">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>53</v>
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="49.5" spans="2:15">
+      <c r="B8" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J8" s="21">
         <v>3</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24" t="s">
-        <v>50</v>
+      <c r="K8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O8" s="11">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="33" spans="2:15">
-      <c r="B9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>56</v>
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="49.5" spans="2:15">
+      <c r="B9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J9" s="21">
         <v>4</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24" t="s">
-        <v>58</v>
+      <c r="K9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O9" s="11">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
-      <c r="B10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="28">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="49.5" spans="2:15">
+      <c r="B10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="21">
         <v>5</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="15">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:15">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="33"/>
+      <c r="K10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="11">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="21">
+        <v>6</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="11">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="21">
+        <v>7</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="11">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="25" customHeight="1" spans="2:15">
+      <c r="B13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="24">
+        <v>8</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="15">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:15">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2142,13 +2673,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -2164,7 +2695,7 @@
     <row r="1" s="1" customFormat="1" ht="17.25"/>
     <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2175,71 +2706,94 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" spans="2:8">
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H4" s="11">
-        <v>43328</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="33.75" spans="2:8">
-      <c r="B5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="15">
-        <v>43328</v>
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="49.5" spans="2:8">
+      <c r="B5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="11">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="15">
+        <v>43349</v>
       </c>
     </row>
   </sheetData>

--- a/job.xlsx
+++ b/job.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="11970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="发布需求" sheetId="1" r:id="rId1"/>
     <sheet name="后端发布" sheetId="2" r:id="rId2"/>
+    <sheet name="前端发布" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">发布需求!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>项目名称</t>
   </si>
@@ -46,49 +42,76 @@
     <t>项目优化</t>
   </si>
   <si>
-    <t>IRM-635</t>
-  </si>
-  <si>
-    <t>存款证明贷财务凭证需要拆税费</t>
-  </si>
-  <si>
-    <t>郭平</t>
-  </si>
-  <si>
-    <t>许令明</t>
-  </si>
-  <si>
-    <t>余珍</t>
-  </si>
-  <si>
-    <t>还垫付管理优化</t>
-  </si>
-  <si>
-    <t>朱山山</t>
-  </si>
-  <si>
-    <t>WJK-645</t>
-  </si>
-  <si>
-    <t>上海资信接口修改</t>
-  </si>
-  <si>
-    <t>罗爽</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 方剑锋</t>
-  </si>
-  <si>
-    <t>陆奕龙</t>
-  </si>
-  <si>
-    <t>HS-609</t>
-  </si>
-  <si>
-    <t>综合征信报告，调上海资信接口查询本地无结果时，强制查询</t>
-  </si>
-  <si>
-    <t>洪旗</t>
+    <t>DBJG-1417</t>
+  </si>
+  <si>
+    <t>【极速云】人脸识别增加常见问题</t>
+  </si>
+  <si>
+    <t>宋亚棋</t>
+  </si>
+  <si>
+    <t>李园</t>
+  </si>
+  <si>
+    <t>吴敏倩</t>
+  </si>
+  <si>
+    <t>DBJG-1416</t>
+  </si>
+  <si>
+    <t>【极速云】账户余额查询接口</t>
+  </si>
+  <si>
+    <t>张脉冬</t>
+  </si>
+  <si>
+    <t>DBJG-1397</t>
+  </si>
+  <si>
+    <t>机构受托账号查询逻辑优化</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>DBJG-1423</t>
+  </si>
+  <si>
+    <t>机构-用户绑卡和换绑卡流程优化</t>
+  </si>
+  <si>
+    <t>WLC-2437</t>
+  </si>
+  <si>
+    <t>债转过程中增加一句提示</t>
+  </si>
+  <si>
+    <t>吉鹏程</t>
+  </si>
+  <si>
+    <t>王春阳</t>
+  </si>
+  <si>
+    <t>吴佩蕾</t>
+  </si>
+  <si>
+    <t>WLC-2439</t>
+  </si>
+  <si>
+    <t>非大陆籍用户修改操作手册</t>
+  </si>
+  <si>
+    <t>王晓婷</t>
+  </si>
+  <si>
+    <t>WLC-2436</t>
+  </si>
+  <si>
+    <t>【汇付托管】充值提现银行卡列表接口优化</t>
+  </si>
+  <si>
+    <t>张建国</t>
   </si>
   <si>
     <t>开发上线发布文档-后端</t>
@@ -136,16 +159,19 @@
     <t>上线时间</t>
   </si>
   <si>
-    <t>IRM</t>
-  </si>
-  <si>
-    <t>IRM后台</t>
+    <t>institution-service</t>
+  </si>
+  <si>
+    <t>机构服务</t>
   </si>
   <si>
     <t>镜像</t>
   </si>
   <si>
-    <t>irm_201811010928</t>
+    <t>institution-service_201811221635</t>
+  </si>
+  <si>
+    <t>刘玉绘</t>
   </si>
   <si>
     <t>无</t>
@@ -154,54 +180,97 @@
     <t>保持现状</t>
   </si>
   <si>
-    <t>1：【IRM】还垫付管理优化
-2：存款证明贷财务凭证需要拆税费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">credit.collect </t>
-  </si>
-  <si>
-    <t>征信服务</t>
-  </si>
-  <si>
-    <t>credit.collect_201810311643</t>
-  </si>
-  <si>
-    <t>方剑锋</t>
-  </si>
-  <si>
-    <t>WJK-646</t>
-  </si>
-  <si>
-    <t>【三方征信】上海资信接口修改</t>
-  </si>
-  <si>
-    <t>shitou-credit-bms</t>
-  </si>
-  <si>
-    <t>石投征信后台</t>
-  </si>
-  <si>
-    <t>shitou-credit-bms_201810311644</t>
-  </si>
-  <si>
-    <t>huishi-server</t>
-  </si>
-  <si>
-    <t>慧石app服务</t>
-  </si>
-  <si>
-    <t>jar</t>
-  </si>
-  <si>
-    <t>huishi-server_201810311641</t>
+    <t>1、 【极速云】账户余额查询接口</t>
+  </si>
+  <si>
+    <t>institution-api</t>
+  </si>
+  <si>
+    <t>机构api</t>
+  </si>
+  <si>
+    <t>institution-api_201811220958</t>
+  </si>
+  <si>
+    <t>1、 【极速云】账户余额查询接口
+2、 机构受托账号查询逻辑优化</t>
+  </si>
+  <si>
+    <t>institution-bms-v2</t>
+  </si>
+  <si>
+    <t>机构后台</t>
+  </si>
+  <si>
+    <t>institution-bms-v2_201811211807</t>
+  </si>
+  <si>
+    <t>1、 机构受托账号查询逻辑优化</t>
+  </si>
+  <si>
+    <t>开发上线发布文档-前端</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 应用名称</t>
+  </si>
+  <si>
+    <t>发布内容</t>
+  </si>
+  <si>
+    <t>发布版本</t>
+  </si>
+  <si>
+    <t>CDN刷新</t>
+  </si>
+  <si>
+    <t>WX NODE</t>
+  </si>
+  <si>
+    <t>1、【汇付托管】充值提现银行卡列表接口优化
+2、非大陆籍用户修改操作手册</t>
+  </si>
+  <si>
+    <t>wx-node_20181122</t>
+  </si>
+  <si>
+    <t>后端发布后</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PC NODE</t>
+  </si>
+  <si>
+    <t>1、【汇付托管】充值提现银行卡列表接口优化
+2、债转过程中增加一句提示
+3、非大陆籍用户修改操作手册</t>
+  </si>
+  <si>
+    <t>pc-node_20181122</t>
+  </si>
+  <si>
+    <t>DB NODE</t>
+  </si>
+  <si>
+    <t>1、【极速云】人脸识别增加常见问题
+2、机构-用户绑卡和换绑卡流程优化</t>
+  </si>
+  <si>
+    <t>db-node_20181122</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,27 +318,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,13 +471,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,8 +601,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -304,13 +671,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -325,7 +722,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -340,7 +737,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -355,7 +752,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -364,15 +761,155 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -391,39 +928,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,7 +1192,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -442,59 +1209,117 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -779,473 +1604,554 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFA6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:XEZ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="12" customWidth="1"/>
-    <col min="8" max="16381" width="9" style="12"/>
-    <col min="16382" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="2.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="53" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15" style="29" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="29" customWidth="1"/>
+    <col min="8" max="16381" width="9" style="29"/>
+    <col min="16382" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7 16372:16380" s="12" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:7 16372:16380" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="14" t="s">
+    <row r="1" s="29" customFormat="1" ht="11" customHeight="1"/>
+    <row r="2" s="29" customFormat="1" ht="25" customHeight="1" spans="2:7">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7 16372:16380" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="24" t="s">
+    <row r="3" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="XER3" s="13"/>
-      <c r="XES3" s="13"/>
-      <c r="XET3" s="13"/>
-      <c r="XEU3" s="13"/>
-      <c r="XEV3" s="13"/>
-      <c r="XEW3" s="13"/>
-      <c r="XEX3" s="13"/>
-      <c r="XEY3" s="13"/>
-      <c r="XEZ3" s="13"/>
+      <c r="XER3" s="30"/>
+      <c r="XES3" s="30"/>
+      <c r="XET3" s="30"/>
+      <c r="XEU3" s="30"/>
+      <c r="XEV3" s="30"/>
+      <c r="XEW3" s="30"/>
+      <c r="XEX3" s="30"/>
+      <c r="XEY3" s="30"/>
+      <c r="XEZ3" s="30"/>
     </row>
-    <row r="4" spans="2:7 16372:16380" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="24"/>
-      <c r="C4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="23" t="s">
+    <row r="4" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B4" s="39"/>
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="XER4" s="13"/>
-      <c r="XES4" s="13"/>
-      <c r="XET4" s="13"/>
-      <c r="XEU4" s="13"/>
-      <c r="XEV4" s="13"/>
-      <c r="XEW4" s="13"/>
-      <c r="XEX4" s="13"/>
-      <c r="XEY4" s="13"/>
-      <c r="XEZ4" s="13"/>
+      <c r="F4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="XER4" s="30"/>
+      <c r="XES4" s="30"/>
+      <c r="XET4" s="30"/>
+      <c r="XEU4" s="30"/>
+      <c r="XEV4" s="30"/>
+      <c r="XEW4" s="30"/>
+      <c r="XEX4" s="30"/>
+      <c r="XEY4" s="30"/>
+      <c r="XEZ4" s="30"/>
     </row>
-    <row r="5" spans="2:7 16372:16380" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
-      <c r="C5" s="22" t="s">
+    <row r="5" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B5" s="39"/>
+      <c r="C5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="XER5" s="30"/>
+      <c r="XES5" s="30"/>
+      <c r="XET5" s="30"/>
+      <c r="XEU5" s="30"/>
+      <c r="XEV5" s="30"/>
+      <c r="XEW5" s="30"/>
+      <c r="XEX5" s="30"/>
+      <c r="XEY5" s="30"/>
+      <c r="XEZ5" s="30"/>
+    </row>
+    <row r="6" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B6" s="39"/>
+      <c r="C6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="XER5" s="13"/>
-      <c r="XES5" s="13"/>
-      <c r="XET5" s="13"/>
-      <c r="XEU5" s="13"/>
-      <c r="XEV5" s="13"/>
-      <c r="XEW5" s="13"/>
-      <c r="XEX5" s="13"/>
-      <c r="XEY5" s="13"/>
-      <c r="XEZ5" s="13"/>
+      <c r="D6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="XER6" s="30"/>
+      <c r="XES6" s="30"/>
+      <c r="XET6" s="30"/>
+      <c r="XEU6" s="30"/>
+      <c r="XEV6" s="30"/>
+      <c r="XEW6" s="30"/>
+      <c r="XEX6" s="30"/>
+      <c r="XEY6" s="30"/>
+      <c r="XEZ6" s="30"/>
     </row>
-    <row r="6" spans="2:7 16372:16380" s="12" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
-      <c r="C6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="23" t="s">
+    <row r="7" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B7" s="40"/>
+      <c r="C7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="D7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="XER6" s="13"/>
-      <c r="XES6" s="13"/>
-      <c r="XET6" s="13"/>
-      <c r="XEU6" s="13"/>
-      <c r="XEV6" s="13"/>
-      <c r="XEW6" s="13"/>
-      <c r="XEX6" s="13"/>
-      <c r="XEY6" s="13"/>
-      <c r="XEZ6" s="13"/>
+      <c r="E7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="XER7" s="30"/>
+      <c r="XES7" s="30"/>
+      <c r="XET7" s="30"/>
+      <c r="XEU7" s="30"/>
+      <c r="XEV7" s="30"/>
+      <c r="XEW7" s="30"/>
+      <c r="XEX7" s="30"/>
+      <c r="XEY7" s="30"/>
+      <c r="XEZ7" s="30"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="XER8" s="30"/>
+      <c r="XES8" s="30"/>
+      <c r="XET8" s="30"/>
+      <c r="XEU8" s="30"/>
+      <c r="XEV8" s="30"/>
+      <c r="XEW8" s="30"/>
+      <c r="XEX8" s="30"/>
+      <c r="XEY8" s="30"/>
+      <c r="XEZ8" s="30"/>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="25" customHeight="1" spans="2:16380">
+      <c r="B9" s="44"/>
+      <c r="C9" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="XER9" s="30"/>
+      <c r="XES9" s="30"/>
+      <c r="XET9" s="30"/>
+      <c r="XEU9" s="30"/>
+      <c r="XEV9" s="30"/>
+      <c r="XEW9" s="30"/>
+      <c r="XEX9" s="30"/>
+      <c r="XEY9" s="30"/>
+      <c r="XEZ9" s="30"/>
+    </row>
+    <row r="10" s="29" customFormat="1" ht="25" customHeight="1" spans="16366:16374">
+      <c r="XEL10" s="30"/>
+      <c r="XEM10" s="30"/>
+      <c r="XEN10" s="30"/>
+      <c r="XEO10" s="30"/>
+      <c r="XEP10" s="30"/>
+      <c r="XEQ10" s="30"/>
+      <c r="XER10" s="30"/>
+      <c r="XES10" s="30"/>
+      <c r="XET10" s="30"/>
+    </row>
+    <row r="11" s="29" customFormat="1" ht="25" customHeight="1" spans="16366:16374">
+      <c r="XEL11" s="30"/>
+      <c r="XEM11" s="30"/>
+      <c r="XEN11" s="30"/>
+      <c r="XEO11" s="30"/>
+      <c r="XEP11" s="30"/>
+      <c r="XEQ11" s="30"/>
+      <c r="XER11" s="30"/>
+      <c r="XES11" s="30"/>
+      <c r="XET11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="63.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+    <row r="1" s="1" customFormat="1" ht="17.25"/>
+    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="26" t="s">
+    <row r="3" s="1" customFormat="1" spans="2:15">
+      <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="C3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="D3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
+      <c r="F3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="O3" s="26" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+    <row r="4" s="1" customFormat="1" spans="2:15">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+    <row r="5" s="1" customFormat="1" spans="2:15">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" spans="2:15" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2">
+    <row r="6" s="1" customFormat="1" ht="31" customHeight="1" spans="2:15">
+      <c r="B6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="18">
         <v>1</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="10">
-        <v>43405</v>
+      <c r="K6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="11">
+        <v>43426</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="2">
+    <row r="7" s="1" customFormat="1" ht="43" customHeight="1" spans="2:15">
+      <c r="B7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="18">
         <v>2</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="11">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="2:15">
+      <c r="B8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="10">
-        <v>43405</v>
+      <c r="E8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="21">
+        <v>3</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="27">
+        <v>43426</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2">
-        <v>3</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="10">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="10">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="11"/>
+    <row r="9" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="10" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="11" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="12" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="13" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="14" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="15" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="16" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="17" s="1" customFormat="1" ht="25" customHeight="1"/>
+    <row r="18" s="1" customFormat="1" spans="2:15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1265,8 +2171,143 @@
     <mergeCell ref="N3:N5"/>
     <mergeCell ref="O3:O5"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.25"/>
+    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="2:8">
+      <c r="B3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="41" customHeight="1" spans="2:8">
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="11">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="49" customHeight="1" spans="2:8">
+      <c r="B5" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="11">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="42" customHeight="1" spans="2:8">
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="11">
+        <v>43426</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>